--- a/python/ilin/Error t1=6 t2=5.xlsx
+++ b/python/ilin/Error t1=6 t2=5.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.545</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E2" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G2" t="n">
         <v>6.07</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.05</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.845</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.79</v>
+        <v>4.96</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.24</v>
+        <v>-0.88</v>
       </c>
       <c r="E3" t="n">
-        <v>4.81</v>
+        <v>4.99</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.77</v>
+        <v>-0.215</v>
       </c>
       <c r="G3" t="n">
-        <v>4.59</v>
+        <v>4.83</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000101</v>
+        <v>9.98e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.782</v>
+        <v>-0.156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11</v>
+        <v>0.00465</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.11e-14</v>
+        <v>-8.74e-05</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.000467</v>
+        <v>-6.77e-12</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>199000</v>
+        <v>7050</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>130000</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>179000</v>
+        <v>7530</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1010</v>
+        <v>36</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>662</v>
+        <v>11.1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>912</v>
+        <v>38.4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
